--- a/GAM403-A2_SumoSoccer_AshleyHall.xlsx
+++ b/GAM403-A2_SumoSoccer_AshleyHall.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Classes\GAM403 - Programming I\Week 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_UnityProjects\_GITHUB\Sumo-Soccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8008DD92-2B2D-47C7-A80D-5FC90F47ECC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ABBF46-ED94-43F2-905C-D69BAA118545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AD2CF00-CD03-4335-9EA3-956C0D57C64D}"/>
   </bookViews>
@@ -436,9 +436,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -469,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,17 +808,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA462C77-ECFC-40AE-BD92-9F45B89E8D15}">
   <dimension ref="A2:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="68.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="21" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="76.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
@@ -833,12 +833,12 @@
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -850,7 +850,7 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -859,201 +859,207 @@
       <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>43776</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" ref="E5:E36" ca="1" si="0">IF(D5&lt;&gt;"",D5-TODAY(),"")</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>-1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43774</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="5">
         <v>43778</v>
       </c>
-      <c r="E6" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="E6" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43774</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>43780</v>
       </c>
-      <c r="E7" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43773</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5">
         <v>43780</v>
       </c>
-      <c r="E8" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+      <c r="E8" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>43784</v>
       </c>
-      <c r="E9" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+      <c r="E9" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5">
         <v>43785</v>
       </c>
-      <c r="E10" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+      <c r="E10" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>43787</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f ca="1">IF(D11&lt;&gt;"",D11-TODAY(),"")</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>43789</v>
       </c>
-      <c r="E12" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+      <c r="E12" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>43794</v>
       </c>
-      <c r="E13" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+      <c r="E13" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="5">
         <v>43799</v>
       </c>
-      <c r="E14" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+      <c r="E14" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>43799</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+      <c r="E15" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1061,10 +1067,10 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1072,10 +1078,10 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1083,10 +1089,10 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="20" t="str">
+      <c r="E19" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1094,10 +1100,10 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="21" t="str">
+      <c r="E20" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1105,10 +1111,10 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="20" t="str">
+      <c r="E21" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1116,10 +1122,10 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1127,10 +1133,10 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="20" t="str">
+      <c r="E23" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1138,10 +1144,10 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1149,10 +1155,10 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="20" t="str">
+      <c r="E25" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1160,10 +1166,10 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1171,10 +1177,10 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="20" t="str">
+      <c r="E27" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1182,10 +1188,10 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="21" t="str">
+      <c r="E28" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1193,10 +1199,10 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="20" t="str">
+      <c r="E29" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1204,10 +1210,10 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="21" t="str">
+      <c r="E30" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1215,10 +1221,10 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="20" t="str">
+      <c r="E31" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1226,10 +1232,10 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="21" t="str">
+      <c r="E32" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1237,10 +1243,10 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="20" t="str">
+      <c r="E33" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1248,10 +1254,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="21" t="str">
+      <c r="E34" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1259,10 +1265,10 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="20" t="str">
+      <c r="E35" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1270,10 +1276,10 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="21" t="str">
+      <c r="E36" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1281,212 +1287,212 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GAM403-A2_SumoSoccer_AshleyHall.xlsx
+++ b/GAM403-A2_SumoSoccer_AshleyHall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_UnityProjects\_GITHUB\Sumo-Soccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ABBF46-ED94-43F2-905C-D69BAA118545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B67DF5-2ADF-4BE8-95E9-31F90B61CCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AD2CF00-CD03-4335-9EA3-956C0D57C64D}"/>
   </bookViews>
@@ -809,7 +809,7 @@
   <dimension ref="A2:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E36" ca="1" si="0">IF(D5&lt;&gt;"",D5-TODAY(),"")</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F5" s="2">
         <v>43774</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F6" s="5">
         <v>43774</v>
@@ -912,7 +912,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>43773</v>
@@ -931,9 +931,11 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43777</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +950,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -965,7 +967,7 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -982,7 +984,7 @@
       </c>
       <c r="E11" s="19">
         <f ca="1">IF(D11&lt;&gt;"",D11-TODAY(),"")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -999,7 +1001,7 @@
       </c>
       <c r="E12" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
@@ -1016,7 +1018,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -1033,7 +1035,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
@@ -1050,7 +1052,7 @@
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>

--- a/GAM403-A2_SumoSoccer_AshleyHall.xlsx
+++ b/GAM403-A2_SumoSoccer_AshleyHall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_UnityProjects\_GITHUB\Sumo-Soccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B67DF5-2ADF-4BE8-95E9-31F90B61CCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74648437-24E8-4DCC-BA0C-82770CE5BA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AD2CF00-CD03-4335-9EA3-956C0D57C64D}"/>
   </bookViews>
@@ -873,7 +873,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E36" ca="1" si="0">IF(D5&lt;&gt;"",D5-TODAY(),"")</f>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F5" s="2">
         <v>43774</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F6" s="5">
         <v>43774</v>
@@ -912,7 +912,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F7" s="2">
         <v>43773</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F8" s="5">
         <v>43777</v>
@@ -950,9 +950,11 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43783</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +969,7 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -984,7 +986,7 @@
       </c>
       <c r="E11" s="19">
         <f ca="1">IF(D11&lt;&gt;"",D11-TODAY(),"")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -1001,7 +1003,7 @@
       </c>
       <c r="E12" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
@@ -1018,7 +1020,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -1035,7 +1037,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
@@ -1052,7 +1054,7 @@
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
